--- a/Convolution step.xlsx
+++ b/Convolution step.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97e4a261c9dcd839/Dokumente/UniOsnabrueck/Studium/3_Semester/Implementing ANNs with TensorFlow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{907302FF-8E03-43AD-8F22-E1F4229196F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{907302FF-8E03-43AD-8F22-E1F4229196F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{97BAE4A6-9D87-4F8D-AD1B-29CFCC78D77F}"/>
   <bookViews>
     <workbookView xWindow="-21795" yWindow="840" windowWidth="41355" windowHeight="10560" xr2:uid="{58FE3649-9506-4D9D-A2A4-D1252A2EFCF9}"/>
   </bookViews>
@@ -16,8 +16,21 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="padding">Sheet1!$A$14</definedName>
+    <definedName name="depth">Sheet1!$D$18</definedName>
+    <definedName name="filters">Sheet1!$B$22</definedName>
+    <definedName name="fliters">Sheet1!$B$22</definedName>
+    <definedName name="kernel_x">Sheet1!$B$19</definedName>
+    <definedName name="kernel_y">Sheet1!$C$19</definedName>
+    <definedName name="kernelsize">Sheet1!$B$19</definedName>
+    <definedName name="padding">Sheet1!$B$14</definedName>
+    <definedName name="padding2">Sheet1!$B$21</definedName>
     <definedName name="strides">Sheet1!$A$13</definedName>
+    <definedName name="strides_x">Sheet1!$B$20</definedName>
+    <definedName name="strides_y">Sheet1!$C$20</definedName>
+    <definedName name="strides2">Sheet1!$B$20</definedName>
+    <definedName name="use_bias">Sheet1!$B$23</definedName>
+    <definedName name="x">Sheet1!$B$18</definedName>
+    <definedName name="y">Sheet1!$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Conv2D</t>
   </si>
@@ -64,17 +77,50 @@
     <t>no</t>
   </si>
   <si>
-    <t>10,10,8</t>
-  </si>
-  <si>
-    <t>5,5,8</t>
+    <t>Calculate output shape</t>
+  </si>
+  <si>
+    <t>kernel:</t>
+  </si>
+  <si>
+    <t>input dim:</t>
+  </si>
+  <si>
+    <t>strides:</t>
+  </si>
+  <si>
+    <t>padding:</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>output dim:</t>
+  </si>
+  <si>
+    <t>filters:</t>
+  </si>
+  <si>
+    <t>trainable params:</t>
+  </si>
+  <si>
+    <t>use bias:</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>(kernel_height * kernel_width * number of filters in the previous layer + 1) * number of filters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +135,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +169,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D4789"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -128,18 +188,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6D4789"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -448,136 +528,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DCC6FC-142D-4D87-B200-9B80AE162E67}">
-  <dimension ref="A2:P21"/>
+  <dimension ref="A2:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>-3</v>
-      </c>
-      <c r="F7" s="4">
-        <v>-5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="1">
-        <f>D7*$J$7+E7*$K$7+F7*$L$7+D8*$J$8+E8*$K$8+F8*$L$8+D9*$J$9+E9*$K$9+F9*$L$9</f>
-        <v>6</v>
-      </c>
-      <c r="P7" s="1">
-        <f>E7*$J$7+F7*$K$7+G7*$L$7+E8*$J$8+F8*$K$8+G8*$L$8+E9*$J$9+F9*$K$9+G9*$L$9</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="O7" s="5" t="str">
+        <f>IF(padding="yes", C6*$J$7+D6*$K$7+E6*$L$7+C7*$J$8+D7*$K$8+E7*$L$8+C8*$J$9+D8*$K$9+E8*$L$9,"")</f>
+        <v/>
+      </c>
+      <c r="P7" s="5" t="str">
+        <f>IF(padding="yes", D6*$J$7+E6*$K$7+F6*$L$7+D7*$J$8+E7*$K$8+F7*$L$8+D8*$J$9+E8*$K$9+F8*$L$9,"")</f>
+        <v/>
+      </c>
+      <c r="Q7" s="5" t="str">
+        <f>IF(padding="yes", E6*$J$7+F6*$K$7+G6*$L$7+E7*$J$8+F7*$K$8+G7*$L$8+E8*$J$9+F8*$K$9+G8*$L$9,"")</f>
+        <v/>
+      </c>
+      <c r="R7" s="5" t="str">
+        <f>IF(padding="yes", F6*$J$7+G6*$K$7+H6*$L$7+F7*$J$8+G7*$K$8+H7*$L$8+F8*$J$9+G8*$K$9+H8*$L$9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
-        <v>-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <v>-2</v>
-      </c>
-      <c r="L8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="1">
-        <f>D8*$J$7+E8*$K$7+F8*$L$7+D9*$J$8+E9*$K$8+F9*$L$8+D10*$J$9+E10*$K$9+F10*$L$9</f>
-        <v>13</v>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="O8" s="5" t="str">
+        <f>IF(padding="yes", C7*$J$7+D7*$K$7+E7*$L$7+C8*$J$8+D8*$K$8+E8*$L$8+C9*$J$9+D9*$K$9+E9*$L$9,"")</f>
+        <v/>
       </c>
       <c r="P8" s="1">
-        <f>E8*$J$7+F8*$K$7+G8*$L$7+E9*$J$8+F9*$K$8+G9*$L$8+E10*$J$9+F10*$K$9+G10*$L$9</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <f>D7*$J$7+E7*$K$7+F7*$L$7+D8*$J$8+E8*$K$8+F8*$L$8+D9*$J$9+E9*$K$9+F9*$L$9</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>E7*$J$7+F7*$K$7+G7*$L$7+E8*$J$8+F8*$K$8+G8*$L$8+E9*$J$9+F9*$K$9+G9*$L$9</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="str">
+        <f>IF(padding="yes", F7*$J$7+G7*$K$7+H7*$L$7+F8*$J$8+G8*$K$8+H8*$L$8+F9*$J$9+G9*$K$9+H9*$L$9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-2</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="O9" s="5" t="str">
+        <f>IF(padding="yes", C8*$J$7+D8*$K$7+E8*$L$7+C9*$J$8+D9*$K$8+E9*$L$8+C10*$J$9+D10*$K$9+E10*$L$9,"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="1">
+        <f>D8*$J$7+E8*$K$7+F8*$L$7+D9*$J$8+E9*$K$8+F9*$L$8+D10*$J$9+E10*$K$9+F10*$L$9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="Q9" s="1">
+        <f>E8*$J$7+F8*$K$7+G8*$L$7+E9*$J$8+F9*$K$8+G9*$L$8+E10*$J$9+F10*$K$9+G10*$L$9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="4">
-        <v>-4</v>
-      </c>
-      <c r="G10" s="4">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" s="5" t="str">
+        <f>IF(padding="yes", F8*$J$7+G8*$K$7+H8*$L$7+F9*$J$8+G9*$K$8+H9*$L$8+F10*$J$9+G10*$K$9+H10*$L$9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="O10" s="5" t="str">
+        <f>IF(padding="yes", C9*$J$7+D9*$K$7+E9*$L$7+C10*$J$8+D10*$K$8+E10*$L$8+C11*$J$9+D11*$K$9+E11*$L$9,"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>IF(padding="yes", D9*$J$7+E9*$K$7+F9*$L$7+D10*$J$8+E10*$K$8+F10*$L$8+D11*$J$9+E11*$K$9+F11*$L$9,"")</f>
+        <v/>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f>IF(padding="yes", E9*$J$7+F9*$K$7+G9*$L$7+E10*$J$8+F10*$K$8+G10*$L$8+E11*$J$9+F11*$K$9+G11*$L$9,"")</f>
+        <v/>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f>IF(padding="yes", F9*$J$7+G9*$K$7+H9*$L$7+F10*$J$8+G10*$K$8+H10*$L$8+F11*$J$9+G11*$K$9+H11*$L$9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -585,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -593,39 +676,140 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
-        <f>3*3*3*8+8</f>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <f>5*5*8</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <f>D19*10+10</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <f>D20+D17</f>
-        <v>2234</v>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <f>IF(OR(padding2="zero",padding2="yes"), ROUNDDOWN((x+kernel_x-1-kernel_x)/strides_x +1,0), ROUNDDOWN((x-kernel_x)/strides_x +1,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <f>IF(OR(padding2="zero",padding2="yes"), ROUNDDOWN((y+kernel_y-1-kernel_y)/strides_y +1,0), ROUNDDOWN((y-kernel_y)/strides_y +1,0))</f>
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <f>filters</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <f>IF(use_bias, (kernel_x*kernel_y*depth+1)*filters, (kernel_x*kernel_y*depth)*filters)</f>
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>kernel_x</f>
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="9">
+        <f>kernel_y</f>
+        <v>3</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="9">
+        <f>depth</f>
+        <v>3</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27">
+        <f>IF(use_bias,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <f>filters</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{2A32AA33-520C-4F02-B298-55F7EED54D9B}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Convolution step.xlsx
+++ b/Convolution step.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97e4a261c9dcd839/Dokumente/UniOsnabrueck/Studium/3_Semester/Implementing ANNs with TensorFlow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{907302FF-8E03-43AD-8F22-E1F4229196F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{97BAE4A6-9D87-4F8D-AD1B-29CFCC78D77F}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{907302FF-8E03-43AD-8F22-E1F4229196F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{58B60691-2347-4261-B0B3-93ABEF9ADD88}"/>
   <bookViews>
-    <workbookView xWindow="-21795" yWindow="840" windowWidth="41355" windowHeight="10560" xr2:uid="{58FE3649-9506-4D9D-A2A4-D1252A2EFCF9}"/>
+    <workbookView xWindow="1740" yWindow="-120" windowWidth="49980" windowHeight="21840" xr2:uid="{58FE3649-9506-4D9D-A2A4-D1252A2EFCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Conv2D</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>(kernel_height * kernel_width * number of filters in the previous layer + 1) * number of filters</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Solutions</t>
   </si>
 </sst>
 </file>
@@ -144,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +184,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF159B52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,15 +227,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,6 +247,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF159B52"/>
       <color rgb="FF6D4789"/>
     </mruColors>
   </colors>
@@ -530,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DCC6FC-142D-4D87-B200-9B80AE162E67}">
   <dimension ref="A2:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,8 +570,8 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -685,43 +716,53 @@
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>20</v>
       </c>
-      <c r="D18">
-        <v>3</v>
+      <c r="D18" s="4">
+        <v>60</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -729,7 +770,7 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>1</v>
       </c>
     </row>
@@ -737,7 +778,7 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="b">
+      <c r="B23" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -745,15 +786,15 @@
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="9">
         <f>IF(OR(padding2="zero",padding2="yes"), ROUNDDOWN((x+kernel_x-1-kernel_x)/strides_x +1,0), ROUNDDOWN((x-kernel_x)/strides_x +1,0))</f>
-        <v>7</v>
-      </c>
-      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="C25" s="9">
         <f>IF(OR(padding2="zero",padding2="yes"), ROUNDDOWN((y+kernel_y-1-kernel_y)/strides_y +1,0), ROUNDDOWN((y-kernel_y)/strides_y +1,0))</f>
-        <v>7</v>
-      </c>
-      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="D25" s="9">
         <f>filters</f>
         <v>1</v>
       </c>
@@ -762,45 +803,54 @@
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="9">
         <f>IF(use_bias, (kernel_x*kernel_y*depth+1)*filters, (kernel_x*kernel_y*depth)*filters)</f>
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27">
+      <c r="C27" s="9">
         <f>kernel_x</f>
-        <v>3</v>
-      </c>
-      <c r="D27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="10">
         <f>kernel_y</f>
-        <v>3</v>
-      </c>
-      <c r="F27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <f>depth</f>
-        <v>3</v>
-      </c>
-      <c r="H27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="9">
         <f>IF(use_bias,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="9">
         <f>filters</f>
         <v>1</v>
       </c>

--- a/Convolution step.xlsx
+++ b/Convolution step.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97e4a261c9dcd839/Dokumente/UniOsnabrueck/Studium/3_Semester/Implementing ANNs with TensorFlow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{907302FF-8E03-43AD-8F22-E1F4229196F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{58B60691-2347-4261-B0B3-93ABEF9ADD88}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{907302FF-8E03-43AD-8F22-E1F4229196F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E53ADE8C-E524-47F4-B19E-7A40E6E1E068}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="49980" windowHeight="21840" xr2:uid="{58FE3649-9506-4D9D-A2A4-D1252A2EFCF9}"/>
+    <workbookView xWindow="-22260" yWindow="3840" windowWidth="22380" windowHeight="18240" xr2:uid="{58FE3649-9506-4D9D-A2A4-D1252A2EFCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>strides</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Calculate output shape</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Solutions</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -215,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -239,6 +245,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DCC6FC-142D-4D87-B200-9B80AE162E67}">
   <dimension ref="A2:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,72 +591,108 @@
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="4">
+        <v>-4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="O7" s="5" t="str">
+      <c r="J7" s="3">
+        <v>-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" s="5">
         <f>IF(padding="yes", C6*$J$7+D6*$K$7+E6*$L$7+C7*$J$8+D7*$K$8+E7*$L$8+C8*$J$9+D8*$K$9+E8*$L$9,"")</f>
-        <v/>
-      </c>
-      <c r="P7" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
         <f>IF(padding="yes", D6*$J$7+E6*$K$7+F6*$L$7+D7*$J$8+E7*$K$8+F7*$L$8+D8*$J$9+E8*$K$9+F8*$L$9,"")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <f>IF(padding="yes", E6*$J$7+F6*$K$7+G6*$L$7+E7*$J$8+F7*$K$8+G7*$L$8+E8*$J$9+F8*$K$9+G8*$L$9,"")</f>
-        <v/>
-      </c>
-      <c r="R7" s="5" t="str">
+        <v>-3</v>
+      </c>
+      <c r="R7" s="5">
         <f>IF(padding="yes", F6*$J$7+G6*$K$7+H6*$L$7+F7*$J$8+G7*$K$8+H7*$L$8+F8*$J$9+G8*$K$9+H8*$L$9,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
       <c r="G8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="O8" s="5" t="str">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-2</v>
+      </c>
+      <c r="O8" s="5">
         <f>IF(padding="yes", C7*$J$7+D7*$K$7+E7*$L$7+C8*$J$8+D8*$K$8+E8*$L$8+C9*$J$9+D9*$K$9+E9*$L$9,"")</f>
-        <v/>
+        <v>-6</v>
       </c>
       <c r="P8" s="1">
         <f>D7*$J$7+E7*$K$7+F7*$L$7+D8*$J$8+E8*$K$8+F8*$L$8+D9*$J$9+E9*$K$9+F9*$L$9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="1">
         <f>E7*$J$7+F7*$K$7+G7*$L$7+E8*$J$8+F8*$K$8+G8*$L$8+E9*$J$9+F9*$K$9+G9*$L$9</f>
         <v>0</v>
       </c>
-      <c r="R8" s="5" t="str">
+      <c r="R8" s="5">
         <f>IF(padding="yes", F7*$J$7+G7*$K$7+H7*$L$7+F8*$J$8+G8*$K$8+H8*$L$8+F9*$J$9+G9*$K$9+H9*$L$9,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
       <c r="G9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="O9" s="5" t="str">
+      <c r="J9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
         <f>IF(padding="yes", C8*$J$7+D8*$K$7+E8*$L$7+C9*$J$8+D9*$K$8+E9*$L$8+C10*$J$9+D10*$K$9+E10*$L$9,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="P9" s="1">
         <f>D8*$J$7+E8*$K$7+F8*$L$7+D9*$J$8+E9*$K$8+F9*$L$8+D10*$J$9+E10*$K$9+F10*$L$9</f>
@@ -657,11 +700,11 @@
       </c>
       <c r="Q9" s="1">
         <f>E8*$J$7+F8*$K$7+G8*$L$7+E9*$J$8+F9*$K$8+G9*$L$8+E10*$J$9+F10*$K$9+G10*$L$9</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="5" t="str">
+        <v>-6</v>
+      </c>
+      <c r="R9" s="5">
         <f>IF(padding="yes", F8*$J$7+G8*$K$7+H8*$L$7+F9*$J$8+G9*$K$8+H9*$L$8+F10*$J$9+G10*$K$9+H10*$L$9,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -669,27 +712,30 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="O10" s="5" t="str">
+      <c r="O10" s="5">
         <f>IF(padding="yes", C9*$J$7+D9*$K$7+E9*$L$7+C10*$J$8+D10*$K$8+E10*$L$8+C11*$J$9+D11*$K$9+E11*$L$9,"")</f>
-        <v/>
-      </c>
-      <c r="P10" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
         <f>IF(padding="yes", D9*$J$7+E9*$K$7+F9*$L$7+D10*$J$8+E10*$K$8+F10*$L$8+D11*$J$9+E11*$K$9+F11*$L$9,"")</f>
-        <v/>
-      </c>
-      <c r="Q10" s="5" t="str">
+        <v>-4</v>
+      </c>
+      <c r="Q10" s="5">
         <f>IF(padding="yes", E9*$J$7+F9*$K$7+G9*$L$7+E10*$J$8+F10*$K$8+G10*$L$8+E11*$J$9+F11*$K$9+G11*$L$9,"")</f>
-        <v/>
-      </c>
-      <c r="R10" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
         <f>IF(padding="yes", F9*$J$7+G9*$K$7+H9*$L$7+F10*$J$8+G10*$K$8+H10*$L$8+F11*$J$9+G11*$K$9+H11*$L$9,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -698,77 +744,83 @@
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -776,7 +828,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>1</v>
@@ -784,15 +836,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="9">
         <f>IF(OR(padding2="zero",padding2="yes"), ROUNDDOWN((x+kernel_x-1-kernel_x)/strides_x +1,0), ROUNDDOWN((x-kernel_x)/strides_x +1,0))</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C25" s="9">
         <f>IF(OR(padding2="zero",padding2="yes"), ROUNDDOWN((y+kernel_y-1-kernel_y)/strides_y +1,0), ROUNDDOWN((y-kernel_y)/strides_y +1,0))</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D25" s="9">
         <f>filters</f>
@@ -801,14 +853,14 @@
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="9">
         <f>IF(use_bias, (kernel_x*kernel_y*depth+1)*filters, (kernel_x*kernel_y*depth)*filters)</f>
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -824,31 +876,31 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="9">
         <f>kernel_x</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="10">
         <f>kernel_y</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="10">
         <f>depth</f>
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9">
         <f>IF(use_bias,1,0)</f>
         <v>1</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" s="9">
         <f>filters</f>
